--- a/Nhom_ĐA24.xlsx
+++ b/Nhom_ĐA24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\TDTU\.Hoc Ky 6\MauThietKe\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E978E0-278B-4348-9E21-D9CA6EBC695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCAF15D-C9AC-4060-8130-5192BCEDB9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19140" windowHeight="15585" activeTab="1" xr2:uid="{26352C60-855D-E843-A083-A5990A866B49}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{26352C60-855D-E843-A083-A5990A866B49}"/>
   </bookViews>
   <sheets>
     <sheet name="Đánh giá" sheetId="1" r:id="rId1"/>
@@ -272,13 +272,13 @@
     <t>Decorator Pattern</t>
   </si>
   <si>
-    <t>Chức năng login, đánh giá sản phẩm, pattern Proxy, Adapter, Decorator.</t>
-  </si>
-  <si>
     <t>Chức năng xem sản phẩm,xem chi tiết sản phẩm, thanh toán, xây dựng pc, pattern Strategy, Builder, State.</t>
   </si>
   <si>
     <t>Chức năng quản lý user, quản lý order, quản lý giỏ hàng, pattern Façade, Observer, Mediator, Singleton</t>
+  </si>
+  <si>
+    <t>Chức năng login, đánh giá sản phẩm, thông tin cá nhân, pattern Proxy, Adapter, Decorator.</t>
   </si>
 </sst>
 </file>
@@ -473,6 +473,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,26 +504,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E239685B-1024-EF43-9BAA-773B6567ABE5}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -908,10 +908,10 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
@@ -934,10 +934,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="12">
         <v>52200002</v>
       </c>
@@ -954,10 +954,10 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="12">
         <v>52200042</v>
       </c>
@@ -974,10 +974,10 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="11">
         <v>52200099</v>
       </c>
@@ -994,8 +994,8 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1024,13 +1024,13 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1049,16 +1049,16 @@
       <c r="E9" s="23">
         <v>3</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="33" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="7"/>
@@ -1080,21 +1080,21 @@
       <c r="E10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -1112,12 +1112,12 @@
       <c r="A12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="26" t="str">
         <f>IF(SUM(F13:F15)=1,"Đ","")</f>
         <v>Đ</v>
@@ -1270,12 +1270,12 @@
       <c r="A16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="26" t="str">
         <f>IF(SUM(F17:F19)=1,"Đ","")</f>
         <v>Đ</v>
@@ -1408,12 +1408,12 @@
       <c r="A20" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="26" t="str">
         <f>IF(SUM(F21:F23)=1,"Đ","")</f>
         <v>Đ</v>
@@ -1545,12 +1545,12 @@
       <c r="A24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="26" t="str">
         <f>IF(SUM(F25:F27)=1,"Đ","")</f>
         <v>Đ</v>
@@ -1671,12 +1671,12 @@
       <c r="A28" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="26" t="str">
         <f>IF(SUM(F29:F31)=1,"Đ","")</f>
         <v>Đ</v>
@@ -1797,12 +1797,12 @@
       <c r="A32" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="26" t="str">
         <f>IF(SUM(F33:F35)=1,"Đ","")</f>
         <v>Đ</v>
@@ -1923,12 +1923,12 @@
       <c r="A36" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="26" t="str">
         <f>IF(SUM(F37:F39)=1,"Đ","")</f>
         <v>Đ</v>
@@ -2049,12 +2049,12 @@
       <c r="A40" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="26" t="str">
         <f>IF(SUM(F41:F43)=1,"Đ","")</f>
         <v>Đ</v>
@@ -2175,12 +2175,12 @@
       <c r="A44" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="26" t="str">
         <f>IF(SUM(F45:F47)=1,"Đ","")</f>
         <v>Đ</v>
@@ -2301,12 +2301,12 @@
       <c r="A48" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="26" t="str">
         <f>IF(SUM(F49:F51)=1,"Đ","")</f>
         <v>Đ</v>
@@ -2427,12 +2427,12 @@
       <c r="A52" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2475,12 +2475,12 @@
       <c r="A54" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
       <c r="F54" s="1">
         <f>IF(LEN(F48&amp;F44&amp;F40&amp;F36&amp;F32&amp;F28&amp;F24&amp;F20&amp;F16&amp;F12)&gt;=8,1,0)</f>
         <v>1</v>
@@ -2509,9 +2509,9 @@
       <c r="B55" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
       <c r="F55" s="3">
         <f>IF(SUM(F13:F54)&gt;10,10,SUM(F13:F54))</f>
         <v>10</v>
@@ -2532,12 +2532,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pvX13VZEq8rur8BbU0r+nQ3kBoodlKFrp70mB7wjM3wnORCx0YaVr6G1/ubh2hJEiPjn4rV09xUURe7VlIW8rw==" saltValue="m/mPQr8WdjqsuPMoliaOfw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="C55:E55"/>
@@ -2551,11 +2550,12 @@
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2566,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8372C526-FEF0-8845-9E76-BBE814687BED}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2597,9 +2597,9 @@
         <v>64</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="39">
+        <v>79</v>
+      </c>
+      <c r="C2" s="30">
         <v>1</v>
       </c>
       <c r="D2" s="29"/>
@@ -2609,9 +2609,9 @@
         <v>66</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="39">
+        <v>77</v>
+      </c>
+      <c r="C3" s="30">
         <v>1</v>
       </c>
       <c r="D3" s="29"/>
@@ -2621,9 +2621,9 @@
         <v>65</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="39">
+        <v>78</v>
+      </c>
+      <c r="C4" s="30">
         <v>1</v>
       </c>
       <c r="D4" s="29"/>

--- a/Nhom_ĐA24.xlsx
+++ b/Nhom_ĐA24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\TDTU\.Hoc Ky 6\MauThietKe\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCAF15D-C9AC-4060-8130-5192BCEDB9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C7597F-BCB5-492D-B0BE-2C3448342CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{26352C60-855D-E843-A083-A5990A866B49}"/>
   </bookViews>
@@ -474,17 +474,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -493,16 +495,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E239685B-1024-EF43-9BAA-773B6567ABE5}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -908,10 +908,10 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
@@ -934,10 +934,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="12">
         <v>52200002</v>
       </c>
@@ -954,10 +954,10 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="12">
         <v>52200042</v>
       </c>
@@ -974,10 +974,10 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="11">
         <v>52200099</v>
       </c>
@@ -994,8 +994,8 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1024,13 +1024,13 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1049,16 +1049,16 @@
       <c r="E9" s="23">
         <v>3</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="38" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="7"/>
@@ -1080,21 +1080,21 @@
       <c r="E10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="I12" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Đ</v>
+        <v/>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -1168,9 +1168,7 @@
       <c r="H13" s="10">
         <v>0.4</v>
       </c>
-      <c r="I13" s="10">
-        <v>0.4</v>
-      </c>
+      <c r="I13" s="10"/>
       <c r="J13" s="2" t="str">
         <f t="shared" ref="J13:J15" si="1">IF(MAX(F13:I13)&gt;B13,"Nhập sai, tối đa " &amp; B13,"")</f>
         <v/>
@@ -1209,9 +1207,7 @@
       <c r="H14" s="10">
         <v>0.3</v>
       </c>
-      <c r="I14" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I14" s="10"/>
       <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1250,9 +1246,7 @@
       <c r="H15" s="10">
         <v>0.3</v>
       </c>
-      <c r="I15" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I15" s="10"/>
       <c r="J15" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1290,7 +1284,7 @@
       </c>
       <c r="I16" s="26" t="str">
         <f t="shared" ref="I16" si="4">IF(SUM(I17:I19)=1,"Đ","")</f>
-        <v>Đ</v>
+        <v/>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -1324,9 +1318,7 @@
       <c r="H17" s="10">
         <v>0.4</v>
       </c>
-      <c r="I17" s="10">
-        <v>0.4</v>
-      </c>
+      <c r="I17" s="10"/>
       <c r="J17" s="2" t="str">
         <f>IF(MAX(F17:I17)&gt;B17,"Nhập sai, tối đa " &amp; B17,"")</f>
         <v/>
@@ -1359,9 +1351,7 @@
       <c r="H18" s="10">
         <v>0.3</v>
       </c>
-      <c r="I18" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I18" s="10"/>
       <c r="J18" s="2" t="str">
         <f t="shared" ref="J18:J19" si="5">IF(MAX(F18:I18)&gt;B18,"Nhập sai, tối đa " &amp; B18,"")</f>
         <v/>
@@ -1394,9 +1384,7 @@
       <c r="H19" s="10">
         <v>0.3</v>
       </c>
-      <c r="I19" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I19" s="10"/>
       <c r="J19" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1428,7 +1416,7 @@
       </c>
       <c r="I20" s="26" t="str">
         <f t="shared" ref="I20" si="8">IF(SUM(I21:I23)=1,"Đ","")</f>
-        <v>Đ</v>
+        <v/>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -1458,9 +1446,7 @@
       <c r="H21" s="10">
         <v>0.4</v>
       </c>
-      <c r="I21" s="10">
-        <v>0.4</v>
-      </c>
+      <c r="I21" s="10"/>
       <c r="J21" s="2" t="str">
         <f>IF(MAX(F21:I21)&gt;B21,"Nhập sai, tối đa " &amp; B21,"")</f>
         <v/>
@@ -1493,9 +1479,7 @@
       <c r="H22" s="10">
         <v>0.3</v>
       </c>
-      <c r="I22" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I22" s="10"/>
       <c r="J22" s="2" t="str">
         <f t="shared" ref="J22:J23" si="9">IF(MAX(F22:I22)&gt;B22,"Nhập sai, tối đa " &amp; B22,"")</f>
         <v/>
@@ -1530,9 +1514,7 @@
       <c r="H23" s="10">
         <v>0.3</v>
       </c>
-      <c r="I23" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I23" s="10"/>
       <c r="J23" s="2" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -1565,7 +1547,7 @@
       </c>
       <c r="I24" s="26" t="str">
         <f t="shared" ref="I24" si="12">IF(SUM(I25:I27)=1,"Đ","")</f>
-        <v>Đ</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -1593,9 +1575,7 @@
       <c r="H25" s="10">
         <v>0.4</v>
       </c>
-      <c r="I25" s="10">
-        <v>0.4</v>
-      </c>
+      <c r="I25" s="10"/>
       <c r="J25" s="2" t="str">
         <f>IF(MAX(F25:I25)&gt;B25,"Nhập sai, tối đa " &amp; B25,"")</f>
         <v/>
@@ -1626,9 +1606,7 @@
       <c r="H26" s="10">
         <v>0.3</v>
       </c>
-      <c r="I26" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I26" s="10"/>
       <c r="J26" s="2" t="str">
         <f t="shared" ref="J26:J27" si="13">IF(MAX(F26:I26)&gt;B26,"Nhập sai, tối đa " &amp; B26,"")</f>
         <v/>
@@ -1659,9 +1637,7 @@
       <c r="H27" s="10">
         <v>0.3</v>
       </c>
-      <c r="I27" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I27" s="10"/>
       <c r="J27" s="2" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -1691,7 +1667,7 @@
       </c>
       <c r="I28" s="26" t="str">
         <f t="shared" ref="I28" si="16">IF(SUM(I29:I31)=1,"Đ","")</f>
-        <v>Đ</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -1719,9 +1695,7 @@
       <c r="H29" s="10">
         <v>0.4</v>
       </c>
-      <c r="I29" s="10">
-        <v>0.4</v>
-      </c>
+      <c r="I29" s="10"/>
       <c r="J29" s="2" t="str">
         <f>IF(MAX(F29:I29)&gt;B29,"Nhập sai, tối đa " &amp; B29,"")</f>
         <v/>
@@ -1752,9 +1726,7 @@
       <c r="H30" s="10">
         <v>0.3</v>
       </c>
-      <c r="I30" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I30" s="10"/>
       <c r="J30" s="2" t="str">
         <f t="shared" ref="J30:J31" si="17">IF(MAX(F30:I30)&gt;B30,"Nhập sai, tối đa " &amp; B30,"")</f>
         <v/>
@@ -1785,9 +1757,7 @@
       <c r="H31" s="10">
         <v>0.3</v>
       </c>
-      <c r="I31" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I31" s="10"/>
       <c r="J31" s="2" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -1817,7 +1787,7 @@
       </c>
       <c r="I32" s="26" t="str">
         <f t="shared" ref="I32" si="20">IF(SUM(I33:I35)=1,"Đ","")</f>
-        <v>Đ</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -1845,9 +1815,7 @@
       <c r="H33" s="10">
         <v>0.4</v>
       </c>
-      <c r="I33" s="10">
-        <v>0.4</v>
-      </c>
+      <c r="I33" s="10"/>
       <c r="J33" s="2" t="str">
         <f>IF(MAX(F33:I33)&gt;B33,"Nhập sai, tối đa " &amp; B33,"")</f>
         <v/>
@@ -1878,9 +1846,7 @@
       <c r="H34" s="10">
         <v>0.3</v>
       </c>
-      <c r="I34" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I34" s="10"/>
       <c r="J34" s="2" t="str">
         <f t="shared" ref="J34:J35" si="21">IF(MAX(F34:I34)&gt;B34,"Nhập sai, tối đa " &amp; B34,"")</f>
         <v/>
@@ -1911,9 +1877,7 @@
       <c r="H35" s="10">
         <v>0.3</v>
       </c>
-      <c r="I35" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I35" s="10"/>
       <c r="J35" s="2" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -1943,7 +1907,7 @@
       </c>
       <c r="I36" s="26" t="str">
         <f t="shared" ref="I36" si="24">IF(SUM(I37:I39)=1,"Đ","")</f>
-        <v>Đ</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -1971,9 +1935,7 @@
       <c r="H37" s="10">
         <v>0.4</v>
       </c>
-      <c r="I37" s="10">
-        <v>0.4</v>
-      </c>
+      <c r="I37" s="10"/>
       <c r="J37" s="2" t="str">
         <f>IF(MAX(F37:I37)&gt;B37,"Nhập sai, tối đa " &amp; B37,"")</f>
         <v/>
@@ -2004,9 +1966,7 @@
       <c r="H38" s="10">
         <v>0.3</v>
       </c>
-      <c r="I38" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I38" s="10"/>
       <c r="J38" s="2" t="str">
         <f t="shared" ref="J38:J39" si="25">IF(MAX(F38:I38)&gt;B38,"Nhập sai, tối đa " &amp; B38,"")</f>
         <v/>
@@ -2037,9 +1997,7 @@
       <c r="H39" s="10">
         <v>0.3</v>
       </c>
-      <c r="I39" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I39" s="10"/>
       <c r="J39" s="2" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -2069,7 +2027,7 @@
       </c>
       <c r="I40" s="26" t="str">
         <f t="shared" ref="I40" si="28">IF(SUM(I41:I43)=1,"Đ","")</f>
-        <v>Đ</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -2097,9 +2055,7 @@
       <c r="H41" s="10">
         <v>0.4</v>
       </c>
-      <c r="I41" s="10">
-        <v>0.4</v>
-      </c>
+      <c r="I41" s="10"/>
       <c r="J41" s="2" t="str">
         <f>IF(MAX(F41:I41)&gt;B41,"Nhập sai, tối đa " &amp; B41,"")</f>
         <v/>
@@ -2130,9 +2086,7 @@
       <c r="H42" s="10">
         <v>0.3</v>
       </c>
-      <c r="I42" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I42" s="10"/>
       <c r="J42" s="2" t="str">
         <f t="shared" ref="J42:J43" si="29">IF(MAX(F42:I42)&gt;B42,"Nhập sai, tối đa " &amp; B42,"")</f>
         <v/>
@@ -2163,9 +2117,7 @@
       <c r="H43" s="10">
         <v>0.3</v>
       </c>
-      <c r="I43" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I43" s="10"/>
       <c r="J43" s="2" t="str">
         <f t="shared" si="29"/>
         <v/>
@@ -2195,7 +2147,7 @@
       </c>
       <c r="I44" s="26" t="str">
         <f t="shared" ref="I44" si="32">IF(SUM(I45:I47)=1,"Đ","")</f>
-        <v>Đ</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -2223,9 +2175,7 @@
       <c r="H45" s="10">
         <v>0.4</v>
       </c>
-      <c r="I45" s="10">
-        <v>0.4</v>
-      </c>
+      <c r="I45" s="10"/>
       <c r="J45" s="2" t="str">
         <f>IF(MAX(F45:I45)&gt;B45,"Nhập sai, tối đa " &amp; B45,"")</f>
         <v/>
@@ -2256,9 +2206,7 @@
       <c r="H46" s="10">
         <v>0.3</v>
       </c>
-      <c r="I46" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I46" s="10"/>
       <c r="J46" s="2" t="str">
         <f t="shared" ref="J46:J47" si="33">IF(MAX(F46:I46)&gt;B46,"Nhập sai, tối đa " &amp; B46,"")</f>
         <v/>
@@ -2289,9 +2237,7 @@
       <c r="H47" s="10">
         <v>0.3</v>
       </c>
-      <c r="I47" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I47" s="10"/>
       <c r="J47" s="2" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -2321,7 +2267,7 @@
       </c>
       <c r="I48" s="26" t="str">
         <f t="shared" ref="I48" si="36">IF(SUM(I49:I51)=1,"Đ","")</f>
-        <v>Đ</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -2349,9 +2295,7 @@
       <c r="H49" s="10">
         <v>0.4</v>
       </c>
-      <c r="I49" s="10">
-        <v>0.4</v>
-      </c>
+      <c r="I49" s="10"/>
       <c r="J49" s="2" t="str">
         <f>IF(MAX(F49:I49)&gt;B49,"Nhập sai, tối đa " &amp; B49,"")</f>
         <v/>
@@ -2382,9 +2326,7 @@
       <c r="H50" s="10">
         <v>0.3</v>
       </c>
-      <c r="I50" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I50" s="10"/>
       <c r="J50" s="2" t="str">
         <f t="shared" ref="J50:J51" si="37">IF(MAX(F50:I50)&gt;B50,"Nhập sai, tối đa " &amp; B50,"")</f>
         <v/>
@@ -2415,9 +2357,7 @@
       <c r="H51" s="10">
         <v>0.3</v>
       </c>
-      <c r="I51" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="I51" s="10"/>
       <c r="J51" s="2" t="str">
         <f t="shared" si="37"/>
         <v/>
@@ -2427,12 +2367,12 @@
       <c r="A52" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2463,9 +2403,7 @@
       <c r="H53" s="10">
         <v>1</v>
       </c>
-      <c r="I53" s="10">
-        <v>1</v>
-      </c>
+      <c r="I53" s="10"/>
       <c r="J53" s="2" t="str">
         <f>IF(MAX(F53:I53)&gt;1, "Nhập sai, tối đa 1","")</f>
         <v/>
@@ -2495,7 +2433,7 @@
       </c>
       <c r="I54" s="1">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="2" t="str">
         <f>IF(MAX(F54:I54)&gt;1, "Nhập sai, tối đa 1","")</f>
@@ -2526,17 +2464,18 @@
       </c>
       <c r="I55" s="3">
         <f t="shared" si="39"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pvX13VZEq8rur8BbU0r+nQ3kBoodlKFrp70mB7wjM3wnORCx0YaVr6G1/ubh2hJEiPjn4rV09xUURe7VlIW8rw==" saltValue="m/mPQr8WdjqsuPMoliaOfw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="C55:E55"/>
@@ -2550,12 +2489,11 @@
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
